--- a/synthetic.xlsx
+++ b/synthetic.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/ML/Keras-SRGAN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9E9382C-6E48-074E-9125-BF6C5629D989}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51241E69-2DCD-B448-94A6-8691C40DADCC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53220" yWindow="2340" windowWidth="12760" windowHeight="16600" xr2:uid="{E11ABDC9-99E6-BC4A-8643-725C048E5549}"/>
+    <workbookView xWindow="32540" yWindow="2980" windowWidth="24280" windowHeight="16600" xr2:uid="{E11ABDC9-99E6-BC4A-8643-725C048E5549}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FB3D88-F07B-CC43-AD17-5397C3273DAD}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,6 +636,222 @@
         <v>0.86166666666666669</v>
       </c>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>0.82</v>
+      </c>
+      <c r="J12">
+        <v>0.89</v>
+      </c>
+      <c r="K12">
+        <v>0.94</v>
+      </c>
+      <c r="L12">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>0.85</v>
+      </c>
+      <c r="J13">
+        <v>0.91</v>
+      </c>
+      <c r="K13">
+        <v>0.94</v>
+      </c>
+      <c r="L13">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>31</v>
+      </c>
+      <c r="I14">
+        <v>0.9</v>
+      </c>
+      <c r="J14">
+        <v>0.96</v>
+      </c>
+      <c r="K14">
+        <v>0.97</v>
+      </c>
+      <c r="L14">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>34</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>0.87</v>
+      </c>
+      <c r="J15">
+        <v>0.94</v>
+      </c>
+      <c r="K15">
+        <v>0.95</v>
+      </c>
+      <c r="L15">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>34</v>
+      </c>
+      <c r="F16">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <v>0.89</v>
+      </c>
+      <c r="J16">
+        <v>0.96</v>
+      </c>
+      <c r="K16">
+        <v>0.97</v>
+      </c>
+      <c r="L16">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>33</v>
+      </c>
+      <c r="F17">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>31</v>
+      </c>
+      <c r="I17">
+        <v>0.87</v>
+      </c>
+      <c r="J17">
+        <v>0.93</v>
+      </c>
+      <c r="K17">
+        <v>0.94</v>
+      </c>
+      <c r="L17">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>32</v>
+      </c>
+      <c r="F18">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>31</v>
+      </c>
+      <c r="I18">
+        <v>0.87</v>
+      </c>
+      <c r="J18">
+        <v>0.93</v>
+      </c>
+      <c r="K18">
+        <v>0.95</v>
+      </c>
+      <c r="L18">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f>AVERAGE(D12:D18)</f>
+        <v>29.142857142857142</v>
+      </c>
+      <c r="E21">
+        <f>AVERAGE(E12:E18)</f>
+        <v>32.285714285714285</v>
+      </c>
+      <c r="F21">
+        <f>AVERAGE(F12:F18)</f>
+        <v>34.142857142857146</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(G12:G18)</f>
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(I12:I18)</f>
+        <v>0.86714285714285722</v>
+      </c>
+      <c r="J21">
+        <f>AVERAGE(J12:J18)</f>
+        <v>0.93142857142857138</v>
+      </c>
+      <c r="K21">
+        <f>AVERAGE(K12:K18)</f>
+        <v>0.95142857142857129</v>
+      </c>
+      <c r="L21">
+        <f>AVERAGE(L12:L18)</f>
+        <v>0.91714285714285715</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
